--- a/biology/Botanique/Jardin_botanique_de_l'Université_de_Leipzig/Jardin_botanique_de_l'Université_de_Leipzig.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_l'Université_de_Leipzig/Jardin_botanique_de_l'Université_de_Leipzig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27Universit%C3%A9_de_Leipzig</t>
+          <t>Jardin_botanique_de_l'Université_de_Leipzig</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de l'université de Leipzig (en allemand, Botanischer Garten der Universität Leipzig) est un jardin botanique situé dans la ville de Leipzig en Allemagne. Géré par l'université de Leipzig, il est situé au numéro 1 de la rue Linné (Linnéstraße). Il est le plus ancien jardin botanique d'Allemagne et l'un des plus vieux au monde, remontant au moins à 1542.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27Universit%C3%A9_de_Leipzig</t>
+          <t>Jardin_botanique_de_l'Université_de_Leipzig</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire du jardin remonte au moins à 1542, bien que l'institution ait déménagé à plusieurs reprises. Il semble avoir été créé peu après la réforme de l'université en 1539 quand Maurice, électeur de Saxe, fait don du monastère dominicain de Saint-Pauli. Le jardin précédent, sur le côté nord de l'église des Pauliniens (PaulinerkirchePaulinerkirche), est transformé en hortus medicus, « jardin médical », en mai 1543.
 Le premier jardin est détruit pendant la guerre de Trente Ans et en 1648, l'université fait l'acquisition d'un nouveau terrain, actuellement sur la rue Grimmaische, sur lequel est créé un deuxième jardin en 1653. En 1807, le jardin déménage sur les terrains du Pleißemühlgraben (de), un bras artificiel de la rivière Pleiße, et les serres sont érigées après 1840. En 1857, le jardin possède plus de 10 000 espèces dont 4 500 cultivées dans les serres. 
